--- a/medicine/Enfance/Didier_Cohen/Didier_Cohen.xlsx
+++ b/medicine/Enfance/Didier_Cohen/Didier_Cohen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Didier Cohen, né le 1er mars 1952 à Paris, est un écrivain, scénariste de télévision et photographe français.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a créé pour France 2 les séries L'Instit, SOS 18 et La Cour des grands.
 Il est également l'auteur de plusieurs téléfilms unitaires : La Maison vide, La Place du père, Fugue en Ré, Suite en Ré, Le Monde de Yoyo.
@@ -520,7 +534,7 @@
 Elu au Conseil d'Administration de la SACD comme représentant des scénaristes de télévision entre 2006 et 2009.
 Elu au Conseil d'Administration de la MACD (Mutuelle des Auteurs) de 2012 à 2022.
 Il est également photographe-portraitiste et expose régulièrement ses œuvres à Paris et en province.
-Nommé le 4 janvier 2010 chevalier des Arts et des Lettres[1], il en reçoit officiellement les insignes à la SACD le 10 mai 2010. La décoration lui est remise par Pierre Grimblat.
+Nommé le 4 janvier 2010 chevalier des Arts et des Lettres, il en reçoit officiellement les insignes à la SACD le 10 mai 2010. La décoration lui est remise par Pierre Grimblat.
 </t>
         </is>
       </c>
@@ -549,7 +563,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Chevalier de l'ordre des Arts et des Lettres (2010)</t>
         </is>
@@ -579,12 +595,14 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1993 : Nomination au Sept d'Or du Meilleur Auteur de Fiction pour la série L'Instit.
 2000 : Trophée du Film Français pour Fugue en Ré (Meilleure audience de l'année)
 2001 : Prix du Public pour La Petite Absente au Festival de la Fiction TV de Luchon.
-2003 : Meilleur scénario pour Le Monde de Yoyo au Festival de la fiction TV de Saint-Tropez[2]</t>
+2003 : Meilleur scénario pour Le Monde de Yoyo au Festival de la fiction TV de Saint-Tropez</t>
         </is>
       </c>
     </row>
